--- a/InvalidMailFormatSignup.xlsx
+++ b/InvalidMailFormatSignup.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
